--- a/HydroDynamicData/turbine_property.xlsx
+++ b/HydroDynamicData/turbine_property.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E96483D-2BF0-4B4C-8453-6618D8940BCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Property" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,19 @@
     <sheet name="Undistributed Blade Properties" sheetId="4" r:id="rId8"/>
     <sheet name="Floating Platform Property" sheetId="6" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -804,7 +814,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
     <numFmt numFmtId="177" formatCode="#,##0.0000000000_);[Red]\(#,##0.0000000000\)"/>
@@ -1070,7 +1080,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1111,11 +1121,9 @@
     <xf numFmtId="0" fontId="14" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="2" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="1" fillId="4" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1127,7 +1135,7 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="2" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="3" xfId="1" applyAlignment="1"/>
     <xf numFmtId="176" fontId="13" fillId="3" borderId="3" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1135,6 +1143,10 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="180" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1158,10 +1170,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1445,46 +1453,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="26.25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="64.875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="57.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.265625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="64.86328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickTop="1" thickBot="1">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:5" ht="14.65" thickTop="1" thickBot="1">
+      <c r="A1" s="28" t="s">
         <v>60</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="28" t="s">
         <v>62</v>
       </c>
-      <c r="D1" s="30" t="s">
+      <c r="D1" s="28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15" thickTop="1">
-      <c r="A2" s="27" t="s">
+    <row r="2" spans="1:5" ht="14.25" thickTop="1">
+      <c r="A2" s="25" t="s">
         <v>113</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="26">
         <v>110000</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D2" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E2" s="38" t="s">
@@ -1492,157 +1500,151 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="26">
         <v>240000</v>
       </c>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D3" s="25" t="s">
         <v>149</v>
       </c>
       <c r="E3" s="38"/>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="25" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="26">
         <v>249718</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C4" s="25" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D4" s="25" t="s">
         <v>153</v>
       </c>
       <c r="E4" s="38"/>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="B5" s="28">
+      <c r="B5" s="26">
         <f>SUM(B2:B4)</f>
         <v>599718</v>
       </c>
-      <c r="C5" s="27" t="s">
+      <c r="C5" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>157</v>
       </c>
       <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="23"/>
       <c r="B6" s="22"/>
-      <c r="C6" s="23"/>
       <c r="E6" s="38"/>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="25" t="s">
+      <c r="A7" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="B7" s="26">
+      <c r="B7" s="24">
         <v>56780</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D7" s="25" t="s">
+      <c r="D7" s="23" t="s">
         <v>156</v>
       </c>
       <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="26">
+      <c r="B8" s="24">
         <f>'Undistributed Blade Properties'!B5*3</f>
         <v>53220</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D8" s="25" t="s">
+      <c r="D8" s="23" t="s">
         <v>160</v>
       </c>
       <c r="E8" s="38"/>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="23" t="s">
         <v>113</v>
       </c>
-      <c r="B9" s="26">
+      <c r="B9" s="24">
         <f>B7+B8</f>
         <v>110000</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="23" t="s">
         <v>158</v>
       </c>
       <c r="E9" s="38"/>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="B10" s="26">
+      <c r="B10" s="24">
         <v>240000</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="23" t="s">
         <v>152</v>
       </c>
-      <c r="D10" s="25" t="s">
+      <c r="D10" s="23" t="s">
         <v>155</v>
       </c>
       <c r="E10" s="38"/>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="B11" s="26">
+      <c r="B11" s="24">
         <v>249718</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D11" s="29" t="s">
+      <c r="D11" s="27" t="s">
         <v>154</v>
       </c>
       <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="26">
+      <c r="B12" s="24">
         <f>SUM(B9:B11)</f>
         <v>599718</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="23" t="s">
         <v>108</v>
       </c>
-      <c r="D12" s="25" t="s">
+      <c r="D12" s="23" t="s">
         <v>157</v>
       </c>
       <c r="E12" s="38"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="24"/>
       <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="24"/>
       <c r="B15" s="22"/>
-      <c r="C15" s="23"/>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
@@ -1806,45 +1808,45 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
     <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="9.125" bestFit="1" customWidth="1"/>
-    <col min="11" max="13" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.46484375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="9.1328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="13" width="13.1328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="33"/>
-      <c r="B1" s="33">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31">
         <v>1</v>
       </c>
-      <c r="C1" s="33">
+      <c r="C1" s="31">
         <v>2</v>
       </c>
-      <c r="D1" s="33">
+      <c r="D1" s="31">
         <v>3</v>
       </c>
-      <c r="E1" s="33">
+      <c r="E1" s="31">
         <v>4</v>
       </c>
-      <c r="F1" s="33">
+      <c r="F1" s="31">
         <v>5</v>
       </c>
-      <c r="G1" s="33">
+      <c r="G1" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="33">
+      <c r="A2" s="31">
         <v>1</v>
       </c>
       <c r="B2" s="6">
@@ -1867,7 +1869,7 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" s="33">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="6">
@@ -1890,7 +1892,7 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="33">
+      <c r="A4" s="31">
         <v>3</v>
       </c>
       <c r="B4" s="6">
@@ -1899,7 +1901,7 @@
       <c r="C4" s="6">
         <v>0</v>
       </c>
-      <c r="D4" s="35">
+      <c r="D4" s="33">
         <v>33.12247</v>
       </c>
       <c r="E4" s="6">
@@ -1913,7 +1915,7 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="33">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
       <c r="B5" s="6">
@@ -1925,7 +1927,7 @@
       <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="33">
         <v>-497341.4</v>
       </c>
       <c r="F5" s="6">
@@ -1936,7 +1938,7 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="33">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
       <c r="B6" s="6">
@@ -1951,7 +1953,7 @@
       <c r="E6" s="6">
         <v>0</v>
       </c>
-      <c r="F6" s="35">
+      <c r="F6" s="33">
         <v>-497341.4</v>
       </c>
       <c r="G6" s="6">
@@ -1959,7 +1961,7 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="33">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
       <c r="B7" s="6">
@@ -1982,28 +1984,28 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33">
+      <c r="A10" s="31"/>
+      <c r="B10" s="31">
         <v>1</v>
       </c>
-      <c r="C10" s="33">
+      <c r="C10" s="31">
         <v>2</v>
       </c>
-      <c r="D10" s="33">
+      <c r="D10" s="31">
         <v>3</v>
       </c>
-      <c r="E10" s="33">
+      <c r="E10" s="31">
         <v>4</v>
       </c>
-      <c r="F10" s="33">
+      <c r="F10" s="31">
         <v>5</v>
       </c>
-      <c r="G10" s="33">
+      <c r="G10" s="31">
         <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="33">
+      <c r="A11" s="31">
         <v>1</v>
       </c>
       <c r="B11" s="6">
@@ -2026,7 +2028,7 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="33">
+      <c r="A12" s="31">
         <v>2</v>
       </c>
       <c r="B12" s="6">
@@ -2048,8 +2050,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="15">
-      <c r="A13" s="33">
+    <row r="13" spans="1:7">
+      <c r="A13" s="31">
         <v>3</v>
       </c>
       <c r="B13" s="6">
@@ -2058,7 +2060,7 @@
       <c r="C13" s="6">
         <v>0</v>
       </c>
-      <c r="D13" s="34">
+      <c r="D13" s="32">
         <v>332941</v>
       </c>
       <c r="E13" s="6">
@@ -2071,8 +2073,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15">
-      <c r="A14" s="33">
+    <row r="14" spans="1:7">
+      <c r="A14" s="31">
         <v>4</v>
       </c>
       <c r="B14" s="6">
@@ -2084,7 +2086,7 @@
       <c r="D14" s="6">
         <v>0</v>
       </c>
-      <c r="E14" s="34">
+      <c r="E14" s="32">
         <v>-4999180000</v>
       </c>
       <c r="F14" s="6">
@@ -2094,8 +2096,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15">
-      <c r="A15" s="33">
+    <row r="15" spans="1:7">
+      <c r="A15" s="31">
         <v>5</v>
       </c>
       <c r="B15" s="6">
@@ -2110,7 +2112,7 @@
       <c r="E15" s="6">
         <v>0</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="32">
         <v>-4999180000</v>
       </c>
       <c r="G15" s="6">
@@ -2118,7 +2120,7 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="33">
+      <c r="A16" s="31">
         <v>6</v>
       </c>
       <c r="B16" s="6">
@@ -2141,301 +2143,301 @@
       </c>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="36" t="e">
+      <c r="B18" s="34" t="e">
         <f>B11/B2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C18" s="36" t="e">
+      <c r="C18" s="34" t="e">
         <f t="shared" ref="C18:G18" si="0">C11/C2</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="36" t="e">
+      <c r="D18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="36" t="e">
+      <c r="E18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="36" t="e">
+      <c r="F18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="36" t="e">
+      <c r="G18" s="34" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="37" t="e">
+      <c r="I18" s="35" t="e">
         <f>B2/B11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="37" t="e">
+      <c r="J18" s="35" t="e">
         <f t="shared" ref="J18:N18" si="1">C2/C11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="37" t="e">
+      <c r="K18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L18" s="37" t="e">
+      <c r="L18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="37" t="e">
+      <c r="M18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N18" s="37" t="e">
+      <c r="N18" s="35" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="36" t="e">
+      <c r="B19" s="34" t="e">
         <f t="shared" ref="B19:G19" si="2">B12/B3</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C19" s="36" t="e">
+      <c r="C19" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D19" s="36" t="e">
+      <c r="D19" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E19" s="36" t="e">
+      <c r="E19" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F19" s="36" t="e">
+      <c r="F19" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="36" t="e">
+      <c r="G19" s="34" t="e">
         <f t="shared" si="2"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="37" t="e">
+      <c r="I19" s="35" t="e">
         <f t="shared" ref="I19:I23" si="3">B3/B12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="37" t="e">
+      <c r="J19" s="35" t="e">
         <f t="shared" ref="J19:J23" si="4">C3/C12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="37" t="e">
+      <c r="K19" s="35" t="e">
         <f t="shared" ref="K19:K23" si="5">D3/D12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L19" s="37" t="e">
+      <c r="L19" s="35" t="e">
         <f t="shared" ref="L19:L23" si="6">E3/E12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="37" t="e">
+      <c r="M19" s="35" t="e">
         <f t="shared" ref="M19:M23" si="7">F3/F12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N19" s="37" t="e">
+      <c r="N19" s="35" t="e">
         <f t="shared" ref="N19:N23" si="8">G3/G12</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="20" spans="2:14">
-      <c r="B20" s="36" t="e">
+      <c r="B20" s="34" t="e">
         <f t="shared" ref="B20:G20" si="9">B13/B4</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C20" s="36" t="e">
+      <c r="C20" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D20" s="36">
+      <c r="D20" s="34">
         <f t="shared" si="9"/>
         <v>10051.816787818057</v>
       </c>
-      <c r="E20" s="36" t="e">
+      <c r="E20" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F20" s="36" t="e">
+      <c r="F20" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="36" t="e">
+      <c r="G20" s="34" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="37" t="e">
+      <c r="I20" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="37" t="e">
+      <c r="J20" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="35">
         <f t="shared" si="5"/>
         <v>9.9484503260337414E-5</v>
       </c>
-      <c r="L20" s="37" t="e">
+      <c r="L20" s="35" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="37" t="e">
+      <c r="M20" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N20" s="37" t="e">
+      <c r="N20" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="21" spans="2:14">
-      <c r="B21" s="36" t="e">
+      <c r="B21" s="34" t="e">
         <f t="shared" ref="B21:G21" si="10">B14/B5</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C21" s="36" t="e">
+      <c r="C21" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D21" s="36" t="e">
+      <c r="D21" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E21" s="36">
+      <c r="E21" s="34">
         <f t="shared" si="10"/>
         <v>10051.807470683116</v>
       </c>
-      <c r="F21" s="36" t="e">
+      <c r="F21" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="36" t="e">
+      <c r="G21" s="34" t="e">
         <f t="shared" si="10"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="37" t="e">
+      <c r="I21" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="37" t="e">
+      <c r="J21" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="37" t="e">
+      <c r="K21" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L21" s="37">
+      <c r="L21" s="35">
         <f t="shared" si="6"/>
         <v>9.9484595473657686E-5</v>
       </c>
-      <c r="M21" s="37" t="e">
+      <c r="M21" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N21" s="37" t="e">
+      <c r="N21" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="22" spans="2:14">
-      <c r="B22" s="36" t="e">
+      <c r="B22" s="34" t="e">
         <f t="shared" ref="B22:G22" si="11">B15/B6</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C22" s="36" t="e">
+      <c r="C22" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D22" s="36" t="e">
+      <c r="D22" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E22" s="36" t="e">
+      <c r="E22" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F22" s="36">
+      <c r="F22" s="34">
         <f t="shared" si="11"/>
         <v>10051.807470683116</v>
       </c>
-      <c r="G22" s="36" t="e">
+      <c r="G22" s="34" t="e">
         <f t="shared" si="11"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="37" t="e">
+      <c r="I22" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="37" t="e">
+      <c r="J22" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="37" t="e">
+      <c r="K22" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L22" s="37" t="e">
+      <c r="L22" s="35" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="37">
+      <c r="M22" s="35">
         <f t="shared" si="7"/>
         <v>9.9484595473657686E-5</v>
       </c>
-      <c r="N22" s="37" t="e">
+      <c r="N22" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="23" spans="2:14">
-      <c r="B23" s="36" t="e">
+      <c r="B23" s="34" t="e">
         <f t="shared" ref="B23:G23" si="12">B16/B7</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="C23" s="36" t="e">
+      <c r="C23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="D23" s="36" t="e">
+      <c r="D23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="E23" s="36" t="e">
+      <c r="E23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F23" s="36" t="e">
+      <c r="F23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="36" t="e">
+      <c r="G23" s="34" t="e">
         <f t="shared" si="12"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="37" t="e">
+      <c r="I23" s="35" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="37" t="e">
+      <c r="J23" s="35" t="e">
         <f t="shared" si="4"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="37" t="e">
+      <c r="K23" s="35" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="L23" s="37" t="e">
+      <c r="L23" s="35" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="37" t="e">
+      <c r="M23" s="35" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="N23" s="37" t="e">
+      <c r="N23" s="35" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>
@@ -2447,17 +2449,17 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="36.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="15.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.86328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2484,7 +2486,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" ht="25.5">
       <c r="A4" s="3" t="s">
         <v>177</v>
       </c>
@@ -2572,7 +2574,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" ht="25.5">
       <c r="A12" s="3" t="s">
         <v>185</v>
       </c>
@@ -2595,7 +2597,7 @@
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="30" t="s">
         <v>192</v>
       </c>
       <c r="B14">
@@ -2604,7 +2606,7 @@
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>193</v>
       </c>
       <c r="B15">
@@ -2619,14 +2621,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="37" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="37" defaultRowHeight="13.9"/>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="19" t="s">
@@ -2764,16 +2766,17 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:P25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M23" sqref="M23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="14" max="14" width="45.875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.19921875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="45.86328125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2792,7 +2795,7 @@
       <c r="J1" s="39"/>
       <c r="K1" s="39"/>
     </row>
-    <row r="2" spans="1:16" ht="22.5">
+    <row r="2" spans="1:16" ht="20.25">
       <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
@@ -2829,13 +2832,13 @@
       <c r="M2">
         <v>1</v>
       </c>
-      <c r="N2" s="46">
-        <v>0</v>
-      </c>
-      <c r="O2" s="46">
+      <c r="N2" s="36">
+        <v>0</v>
+      </c>
+      <c r="O2" s="36">
         <v>6</v>
       </c>
-      <c r="P2" s="46">
+      <c r="P2" s="36">
         <v>1</v>
       </c>
     </row>
@@ -2873,16 +2876,16 @@
       <c r="K3" s="1">
         <v>0</v>
       </c>
-      <c r="M3" s="47">
+      <c r="M3" s="37">
         <v>2</v>
       </c>
-      <c r="N3" s="46">
+      <c r="N3" s="36">
         <v>8.5260999999999996</v>
       </c>
-      <c r="O3" s="46">
+      <c r="O3" s="36">
         <v>5.7869999999999999</v>
       </c>
-      <c r="P3" s="46">
+      <c r="P3" s="36">
         <v>1</v>
       </c>
     </row>
@@ -2923,13 +2926,13 @@
       <c r="M4">
         <v>3</v>
       </c>
-      <c r="N4" s="46">
+      <c r="N4" s="36">
         <v>17.053000000000001</v>
       </c>
-      <c r="O4" s="46">
+      <c r="O4" s="36">
         <v>5.5739999999999998</v>
       </c>
-      <c r="P4" s="46">
+      <c r="P4" s="36">
         <v>1</v>
       </c>
     </row>
@@ -2967,16 +2970,16 @@
       <c r="K5" s="1">
         <v>0</v>
       </c>
-      <c r="M5" s="47">
+      <c r="M5" s="37">
         <v>4</v>
       </c>
-      <c r="N5" s="46">
+      <c r="N5" s="36">
         <v>25.579000000000001</v>
       </c>
-      <c r="O5" s="46">
+      <c r="O5" s="36">
         <v>5.3609999999999998</v>
       </c>
-      <c r="P5" s="46">
+      <c r="P5" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3017,13 +3020,13 @@
       <c r="M6">
         <v>5</v>
       </c>
-      <c r="N6" s="46">
+      <c r="N6" s="36">
         <v>34.104999999999997</v>
       </c>
-      <c r="O6" s="46">
+      <c r="O6" s="36">
         <v>5.1479999999999997</v>
       </c>
-      <c r="P6" s="46">
+      <c r="P6" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3061,16 +3064,16 @@
       <c r="K7" s="1">
         <v>0</v>
       </c>
-      <c r="M7" s="47">
+      <c r="M7" s="37">
         <v>6</v>
       </c>
-      <c r="N7" s="46">
+      <c r="N7" s="36">
         <v>42.633000000000003</v>
       </c>
-      <c r="O7" s="46">
+      <c r="O7" s="36">
         <v>4.9349999999999996</v>
       </c>
-      <c r="P7" s="46">
+      <c r="P7" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3111,13 +3114,13 @@
       <c r="M8">
         <v>7</v>
       </c>
-      <c r="N8" s="46">
+      <c r="N8" s="36">
         <v>51.158000000000001</v>
       </c>
-      <c r="O8" s="46">
+      <c r="O8" s="36">
         <v>4.7220000000000004</v>
       </c>
-      <c r="P8" s="46">
+      <c r="P8" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3155,16 +3158,16 @@
       <c r="K9" s="1">
         <v>0</v>
       </c>
-      <c r="M9" s="47">
+      <c r="M9" s="37">
         <v>8</v>
       </c>
-      <c r="N9" s="46">
+      <c r="N9" s="36">
         <v>59.685000000000002</v>
       </c>
-      <c r="O9" s="46">
+      <c r="O9" s="36">
         <v>4.5090000000000003</v>
       </c>
-      <c r="P9" s="46">
+      <c r="P9" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3205,13 +3208,13 @@
       <c r="M10">
         <v>9</v>
       </c>
-      <c r="N10" s="46">
+      <c r="N10" s="36">
         <v>68.210999999999999</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O10" s="36">
         <v>4.2960000000000003</v>
       </c>
-      <c r="P10" s="46">
+      <c r="P10" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3249,16 +3252,16 @@
       <c r="K11" s="1">
         <v>0</v>
       </c>
-      <c r="M11" s="47">
+      <c r="M11" s="37">
         <v>10</v>
       </c>
-      <c r="N11" s="46">
+      <c r="N11" s="36">
         <v>76.738</v>
       </c>
-      <c r="O11" s="46">
+      <c r="O11" s="36">
         <v>4.0830000000000002</v>
       </c>
-      <c r="P11" s="46">
+      <c r="P11" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3299,13 +3302,13 @@
       <c r="M12">
         <v>11</v>
       </c>
-      <c r="N12" s="46">
+      <c r="N12" s="36">
         <v>85.268000000000001</v>
       </c>
-      <c r="O12" s="46">
+      <c r="O12" s="36">
         <v>3.87</v>
       </c>
-      <c r="P12" s="46">
+      <c r="P12" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3343,16 +3346,16 @@
       <c r="K13" s="1">
         <v>0</v>
       </c>
-      <c r="M13" s="47">
+      <c r="M13" s="37">
         <v>12</v>
       </c>
-      <c r="N13" s="46">
+      <c r="N13" s="36">
         <v>87.6</v>
       </c>
-      <c r="O13" s="46">
+      <c r="O13" s="36">
         <v>3.87</v>
       </c>
-      <c r="P13" s="46">
+      <c r="P13" s="36">
         <v>1</v>
       </c>
     </row>
@@ -3368,10 +3371,18 @@
         <f>AVERAGE(C3:C4)*0.1*(87.6-10)</f>
         <v>34967.646399999998</v>
       </c>
+      <c r="H14">
+        <f>AVERAGE(H3:H4)*A14</f>
+        <v>176136.09200000003</v>
+      </c>
+      <c r="I14">
+        <f>H14+(AVERAGE(A3:A4)-43.4)^2*C14</f>
+        <v>30648006.181410547</v>
+      </c>
     </row>
     <row r="15" spans="1:16">
       <c r="A15">
-        <f t="shared" ref="A15:A24" si="0">A5-A4</f>
+        <f t="shared" ref="A15:A23" si="0">A5-A4</f>
         <v>7.759999999999998</v>
       </c>
       <c r="B15" s="12" t="s">
@@ -3381,7 +3392,15 @@
         <f t="shared" ref="C15:C23" si="1">AVERAGE(C4:C5)*0.1*(87.6-10)</f>
         <v>32514.555200000003</v>
       </c>
-      <c r="N15" s="46">
+      <c r="H15">
+        <f>AVERAGE(H4:H5)*A15</f>
+        <v>150540.89599999995</v>
+      </c>
+      <c r="I15">
+        <f t="shared" ref="I15:I23" si="2">H15+(AVERAGE(A4:A5)-43.4)^2*C15</f>
+        <v>15546104.748267518</v>
+      </c>
+      <c r="N15" s="36">
         <f>N3-N2</f>
         <v>8.5260999999999996</v>
       </c>
@@ -3398,8 +3417,16 @@
         <f t="shared" si="1"/>
         <v>30148.376</v>
       </c>
-      <c r="N16" s="46">
-        <f t="shared" ref="N16:N25" si="2">N4-N3</f>
+      <c r="H16">
+        <f t="shared" ref="H15:H23" si="3">AVERAGE(H5:H6)*A16</f>
+        <v>127828.54000000002</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="2"/>
+        <v>6036910.2360000005</v>
+      </c>
+      <c r="N16" s="36">
+        <f t="shared" ref="N16:N25" si="4">N4-N3</f>
         <v>8.5269000000000013</v>
       </c>
     </row>
@@ -3415,8 +3442,16 @@
         <f t="shared" si="1"/>
         <v>27869.108800000002</v>
       </c>
-      <c r="N17" s="46">
+      <c r="H17">
+        <f t="shared" si="3"/>
+        <v>107775.14799999997</v>
+      </c>
+      <c r="I17">
         <f t="shared" si="2"/>
+        <v>1192931.3588108807</v>
+      </c>
+      <c r="N17" s="36">
+        <f t="shared" si="4"/>
         <v>8.5259999999999998</v>
       </c>
     </row>
@@ -3432,8 +3467,16 @@
         <f t="shared" si="1"/>
         <v>25676.7536</v>
       </c>
-      <c r="N18" s="46">
+      <c r="H18">
+        <f t="shared" si="3"/>
+        <v>90166.155999999974</v>
+      </c>
+      <c r="I18">
         <f t="shared" si="2"/>
+        <v>149489.72751744022</v>
+      </c>
+      <c r="N18" s="36">
+        <f t="shared" si="4"/>
         <v>8.5259999999999962</v>
       </c>
     </row>
@@ -3449,8 +3492,16 @@
         <f t="shared" si="1"/>
         <v>23571.349200000001</v>
       </c>
-      <c r="N19" s="46">
+      <c r="H19">
+        <f t="shared" si="3"/>
+        <v>74795.924000000057</v>
+      </c>
+      <c r="I19">
         <f t="shared" si="2"/>
+        <v>2104722.8029452804</v>
+      </c>
+      <c r="N19" s="36">
+        <f t="shared" si="4"/>
         <v>8.5280000000000058</v>
       </c>
     </row>
@@ -3466,8 +3517,16 @@
         <f t="shared" si="1"/>
         <v>21552.895599999996</v>
       </c>
-      <c r="N20" s="46">
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>61467.347999999933</v>
+      </c>
+      <c r="I20">
         <f t="shared" si="2"/>
+        <v>6319600.5990489582</v>
+      </c>
+      <c r="N20" s="36">
+        <f t="shared" si="4"/>
         <v>8.5249999999999986</v>
       </c>
     </row>
@@ -3483,8 +3542,16 @@
         <f t="shared" si="1"/>
         <v>19621.392799999998</v>
       </c>
-      <c r="N21" s="46">
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>49992.636000000035</v>
+      </c>
+      <c r="I21">
         <f t="shared" si="2"/>
+        <v>12117934.06371199</v>
+      </c>
+      <c r="N21" s="36">
+        <f t="shared" si="4"/>
         <v>8.527000000000001</v>
       </c>
     </row>
@@ -3500,8 +3567,16 @@
         <f t="shared" si="1"/>
         <v>17776.801999999996</v>
       </c>
-      <c r="N22" s="46">
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>40193.308000000026</v>
+      </c>
+      <c r="I22">
         <f t="shared" si="2"/>
+        <v>18886333.944787204</v>
+      </c>
+      <c r="N22" s="36">
+        <f t="shared" si="4"/>
         <v>8.5259999999999962</v>
       </c>
     </row>
@@ -3517,8 +3592,16 @@
         <f t="shared" si="1"/>
         <v>16019.123199999998</v>
       </c>
-      <c r="N23" s="46">
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>31899.031999999963</v>
+      </c>
+      <c r="I23">
         <f t="shared" si="2"/>
+        <v>26074226.064135682</v>
+      </c>
+      <c r="N23" s="36">
+        <f t="shared" si="4"/>
         <v>8.527000000000001</v>
       </c>
     </row>
@@ -3530,14 +3613,18 @@
         <f>SUM(C14:C23)</f>
         <v>249718.00279999999</v>
       </c>
-      <c r="N24" s="46">
-        <f t="shared" si="2"/>
+      <c r="I24">
+        <f>SUM(I14:I23)</f>
+        <v>119076259.7266355</v>
+      </c>
+      <c r="N24" s="36">
+        <f t="shared" si="4"/>
         <v>8.5300000000000011</v>
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="N25" s="46">
-        <f t="shared" si="2"/>
+      <c r="N25" s="36">
+        <f t="shared" si="4"/>
         <v>2.3319999999999936</v>
       </c>
     </row>
@@ -3552,29 +3639,29 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:R51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="10.625" style="9" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="9.125" style="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.125" style="9" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.265625" style="9" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="9" width="12.46484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="10.59765625" style="9" bestFit="1" customWidth="1"/>
+    <col min="13" max="15" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.46484375" style="9" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.1328125" style="9" bestFit="1" customWidth="1"/>
     <col min="19" max="16384" width="9" style="9"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="25.5">
+    <row r="1" spans="1:18" ht="24.75">
       <c r="A1" s="40" t="s">
         <v>43</v>
       </c>
@@ -3596,7 +3683,7 @@
       <c r="Q1" s="41"/>
       <c r="R1" s="41"/>
     </row>
-    <row r="2" spans="1:18" ht="25.5">
+    <row r="2" spans="1:18" ht="38.25">
       <c r="A2" s="8" t="s">
         <v>39</v>
       </c>
@@ -6406,20 +6493,20 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="46.875" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="4" max="4" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.75" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.86328125" customWidth="1"/>
+    <col min="2" max="2" width="17.59765625" customWidth="1"/>
+    <col min="4" max="4" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.73046875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -6466,7 +6553,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" ht="25.5">
       <c r="A5" s="3" t="s">
         <v>15</v>
       </c>
@@ -6673,20 +6760,20 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="35.875" customWidth="1"/>
-    <col min="2" max="2" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="35.86328125" customWidth="1"/>
+    <col min="2" max="2" width="9.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18">
+    <row r="1" spans="1:3" ht="17.649999999999999">
       <c r="A1" s="42" t="s">
         <v>58</v>
       </c>
@@ -6735,7 +6822,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" ht="25.5">
       <c r="A6" s="3" t="s">
         <v>47</v>
       </c>
@@ -6757,7 +6844,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" ht="25.5">
       <c r="A8" s="3" t="s">
         <v>49</v>
       </c>
@@ -6787,16 +6874,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="13.9"/>
   <cols>
-    <col min="1" max="1" width="47.875" customWidth="1"/>
+    <col min="1" max="1" width="47.86328125" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
   </cols>
   <sheetData>
